--- a/Excel_Data.xlsx
+++ b/Excel_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13ccd1b3724d3287/Articles/Excel Articles/Others/دیتابیس آماده اکسل برای تمرین/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asre-Rayane.ir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC10486DD15853105BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC139726-1938-4F58-996E-BEEA1BADB72D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,215 +162,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>471297</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABF5CB8-E913-49E4-ADD6-0D313473C880}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6324600" y="1733550"/>
-          <a:ext cx="1490472" cy="583050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>362792</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>24464</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D8A896-377B-4AD1-A00A-6DE6C190CDA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7706567" y="1733550"/>
-          <a:ext cx="1490472" cy="583050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>499872</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45313F9-6A40-46C9-B629-E2A9ECA3642B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="2247900"/>
-          <a:ext cx="1490472" cy="583050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>130264</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178555</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF138EFB-3F42-4CCC-A7EE-4902C798F765}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6124575" y="1228725"/>
-          <a:ext cx="3178264" cy="473830"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,23 +426,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -675,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44202</v>
       </c>
@@ -698,7 +490,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44219</v>
       </c>
@@ -721,7 +513,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44236</v>
       </c>
@@ -744,7 +536,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44253</v>
       </c>
@@ -767,7 +559,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44270</v>
       </c>
@@ -790,7 +582,7 @@
         <v>115200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
@@ -813,7 +605,7 @@
         <v>212500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44304</v>
       </c>
@@ -836,7 +628,7 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44321</v>
       </c>
@@ -859,7 +651,7 @@
         <v>193200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44338</v>
       </c>
@@ -882,7 +674,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44355</v>
       </c>
@@ -905,7 +697,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44372</v>
       </c>
@@ -928,7 +720,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44389</v>
       </c>
@@ -951,7 +743,7 @@
         <v>124100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44406</v>
       </c>
@@ -974,7 +766,7 @@
         <v>237000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44423</v>
       </c>
@@ -997,7 +789,7 @@
         <v>107800</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44440</v>
       </c>
@@ -1020,7 +812,7 @@
         <v>204000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44457</v>
       </c>
@@ -1043,7 +835,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44474</v>
       </c>
@@ -1066,7 +858,7 @@
         <v>116800</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44491</v>
       </c>
@@ -1089,7 +881,7 @@
         <v>200200</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44508</v>
       </c>
@@ -1112,7 +904,7 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44525</v>
       </c>
@@ -1135,7 +927,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44542</v>
       </c>
@@ -1158,7 +950,7 @@
         <v>53900</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44559</v>
       </c>
@@ -1181,7 +973,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44576</v>
       </c>
@@ -1204,7 +996,7 @@
         <v>159300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44593</v>
       </c>
@@ -1227,7 +1019,7 @@
         <v>75900</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44610</v>
       </c>
@@ -1250,7 +1042,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44627</v>
       </c>
@@ -1273,7 +1065,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44644</v>
       </c>
@@ -1296,7 +1088,7 @@
         <v>97500</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44661</v>
       </c>
@@ -1319,7 +1111,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44678</v>
       </c>
@@ -1342,7 +1134,7 @@
         <v>234900</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44695</v>
       </c>
@@ -1365,7 +1157,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44712</v>
       </c>
@@ -1388,7 +1180,7 @@
         <v>101400</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44729</v>
       </c>
@@ -1411,7 +1203,7 @@
         <v>217800</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44746</v>
       </c>
@@ -1434,7 +1226,7 @@
         <v>197400</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44763</v>
       </c>
@@ -1457,7 +1249,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44780</v>
       </c>
@@ -1480,7 +1272,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44797</v>
       </c>
@@ -1503,7 +1295,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44814</v>
       </c>
@@ -1526,7 +1318,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44831</v>
       </c>
@@ -1549,7 +1341,7 @@
         <v>107800</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44848</v>
       </c>
@@ -1572,7 +1364,7 @@
         <v>101400</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44865</v>
       </c>
@@ -1595,7 +1387,7 @@
         <v>52900</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44882</v>
       </c>
@@ -1618,7 +1410,7 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44899</v>
       </c>
@@ -1641,7 +1433,7 @@
         <v>129600</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44916</v>
       </c>
@@ -1667,6 +1459,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel_Data.xlsx
+++ b/Excel_Data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,15 +47,6 @@
     <t>میز مطالعه</t>
   </si>
   <si>
-    <t>تعداد</t>
-  </si>
-  <si>
-    <t>قیمت هرواحد(ریال)</t>
-  </si>
-  <si>
-    <t>قیمت کل(ریال)</t>
-  </si>
-  <si>
     <t>شرق</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>غرب</t>
   </si>
   <si>
-    <t>تاریخ ثبت سفارش</t>
-  </si>
-  <si>
     <t>تهرانی مقدم</t>
   </si>
   <si>
@@ -101,26 +89,43 @@
     <t>پرتو</t>
   </si>
   <si>
-    <t>منطقه</t>
-  </si>
-  <si>
-    <t>نام سفارش‌‌دهنده</t>
-  </si>
-  <si>
-    <t>نام کالا</t>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>total_price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,10 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +438,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,25 +454,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -472,10 +480,10 @@
         <v>44202</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -495,10 +503,10 @@
         <v>44219</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -518,10 +526,10 @@
         <v>44236</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -541,10 +549,10 @@
         <v>44253</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -564,10 +572,10 @@
         <v>44270</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -587,10 +595,10 @@
         <v>44287</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -610,10 +618,10 @@
         <v>44304</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -633,10 +641,10 @@
         <v>44321</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -656,10 +664,10 @@
         <v>44338</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -679,10 +687,10 @@
         <v>44355</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -702,10 +710,10 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -725,10 +733,10 @@
         <v>44389</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -748,10 +756,10 @@
         <v>44406</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -771,10 +779,10 @@
         <v>44423</v>
       </c>
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -794,10 +802,10 @@
         <v>44440</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -817,10 +825,10 @@
         <v>44457</v>
       </c>
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -840,10 +848,10 @@
         <v>44474</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -863,10 +871,10 @@
         <v>44491</v>
       </c>
       <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -886,10 +894,10 @@
         <v>44508</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -909,10 +917,10 @@
         <v>44525</v>
       </c>
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -932,10 +940,10 @@
         <v>44542</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -955,10 +963,10 @@
         <v>44559</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
@@ -978,10 +986,10 @@
         <v>44576</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -1001,10 +1009,10 @@
         <v>44593</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1024,10 +1032,10 @@
         <v>44610</v>
       </c>
       <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -1047,10 +1055,10 @@
         <v>44627</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -1070,10 +1078,10 @@
         <v>44644</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -1093,10 +1101,10 @@
         <v>44661</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -1116,10 +1124,10 @@
         <v>44678</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
@@ -1139,10 +1147,10 @@
         <v>44695</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
@@ -1162,10 +1170,10 @@
         <v>44712</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1185,10 +1193,10 @@
         <v>44729</v>
       </c>
       <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -1208,10 +1216,10 @@
         <v>44746</v>
       </c>
       <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1231,10 +1239,10 @@
         <v>44763</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -1254,10 +1262,10 @@
         <v>44780</v>
       </c>
       <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1277,10 +1285,10 @@
         <v>44797</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -1300,10 +1308,10 @@
         <v>44814</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
@@ -1323,10 +1331,10 @@
         <v>44831</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -1346,10 +1354,10 @@
         <v>44848</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -1369,10 +1377,10 @@
         <v>44865</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
@@ -1392,10 +1400,10 @@
         <v>44882</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -1415,10 +1423,10 @@
         <v>44899</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -1438,10 +1446,10 @@
         <v>44916</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
